--- a/SchedulingData/dynamic12/pso/scheduling1_11.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_11.xlsx
@@ -466,112 +466,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.4</v>
+        <v>63.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.12</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.28</v>
+        <v>47.36</v>
       </c>
       <c r="E3" t="n">
-        <v>26.152</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47.36</v>
       </c>
       <c r="D4" t="n">
-        <v>58.6</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>25.84</v>
+        <v>23.188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58.6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>93.5</v>
+        <v>53.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23.48</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93.5</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>146.92</v>
+        <v>136.28</v>
       </c>
       <c r="E6" t="n">
-        <v>19.268</v>
+        <v>20.812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>112.06</v>
+        <v>67.3</v>
       </c>
       <c r="E7" t="n">
-        <v>22.584</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>69.72</v>
+        <v>49.12</v>
       </c>
       <c r="E8" t="n">
-        <v>27.668</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.12</v>
       </c>
       <c r="D9" t="n">
-        <v>66.14</v>
+        <v>111.26</v>
       </c>
       <c r="E9" t="n">
-        <v>27.036</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55.28</v>
+        <v>63.2</v>
       </c>
       <c r="D10" t="n">
-        <v>105.18</v>
+        <v>100.9</v>
       </c>
       <c r="E10" t="n">
-        <v>22.792</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>146.92</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.02</v>
+        <v>52.22</v>
       </c>
       <c r="E11" t="n">
-        <v>15.368</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>136.28</v>
       </c>
       <c r="D12" t="n">
-        <v>47.54</v>
+        <v>206.08</v>
       </c>
       <c r="E12" t="n">
-        <v>26.436</v>
+        <v>17.932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47.54</v>
+        <v>53.6</v>
       </c>
       <c r="D13" t="n">
-        <v>93.04000000000001</v>
+        <v>120.06</v>
       </c>
       <c r="E13" t="n">
-        <v>23.016</v>
+        <v>21.304</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>66.14</v>
+        <v>120.06</v>
       </c>
       <c r="D14" t="n">
-        <v>135.66</v>
+        <v>163.24</v>
       </c>
       <c r="E14" t="n">
-        <v>24.204</v>
+        <v>18.616</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>93.04000000000001</v>
+        <v>206.08</v>
       </c>
       <c r="D15" t="n">
-        <v>143.96</v>
+        <v>260.22</v>
       </c>
       <c r="E15" t="n">
-        <v>19.544</v>
+        <v>15.148</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>112.06</v>
+        <v>100.9</v>
       </c>
       <c r="D16" t="n">
-        <v>173.52</v>
+        <v>150.68</v>
       </c>
       <c r="E16" t="n">
-        <v>19.048</v>
+        <v>18.892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143.96</v>
+        <v>52.22</v>
       </c>
       <c r="D17" t="n">
-        <v>183.12</v>
+        <v>109.06</v>
       </c>
       <c r="E17" t="n">
-        <v>16.268</v>
+        <v>23.884</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>105.18</v>
+        <v>67.3</v>
       </c>
       <c r="D18" t="n">
-        <v>166.32</v>
+        <v>133.34</v>
       </c>
       <c r="E18" t="n">
-        <v>19.768</v>
+        <v>23.956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>173.52</v>
+        <v>133.34</v>
       </c>
       <c r="D19" t="n">
-        <v>231.44</v>
+        <v>179.7</v>
       </c>
       <c r="E19" t="n">
-        <v>15.856</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>231.44</v>
+        <v>111.26</v>
       </c>
       <c r="D20" t="n">
-        <v>283.54</v>
+        <v>156.64</v>
       </c>
       <c r="E20" t="n">
-        <v>11.776</v>
+        <v>19.256</v>
       </c>
     </row>
     <row r="21">
@@ -827,193 +827,193 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>283.54</v>
+        <v>150.68</v>
       </c>
       <c r="D21" t="n">
-        <v>327.94</v>
+        <v>215.9</v>
       </c>
       <c r="E21" t="n">
-        <v>9.456</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>327.94</v>
+        <v>260.22</v>
       </c>
       <c r="D22" t="n">
-        <v>371.98</v>
+        <v>308.44</v>
       </c>
       <c r="E22" t="n">
-        <v>6.672</v>
+        <v>11.956</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>222.02</v>
+        <v>179.7</v>
       </c>
       <c r="D23" t="n">
-        <v>263.58</v>
+        <v>230.54</v>
       </c>
       <c r="E23" t="n">
-        <v>12.352</v>
+        <v>17.976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>263.58</v>
+        <v>308.44</v>
       </c>
       <c r="D24" t="n">
-        <v>314.42</v>
+        <v>369.88</v>
       </c>
       <c r="E24" t="n">
-        <v>9.388</v>
+        <v>8.932</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>183.12</v>
+        <v>163.24</v>
       </c>
       <c r="D25" t="n">
-        <v>226.2</v>
+        <v>219.74</v>
       </c>
       <c r="E25" t="n">
-        <v>13.58</v>
+        <v>15.076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>135.66</v>
+        <v>230.54</v>
       </c>
       <c r="D26" t="n">
-        <v>197.18</v>
+        <v>269.94</v>
       </c>
       <c r="E26" t="n">
-        <v>21.652</v>
+        <v>15.656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>166.32</v>
+        <v>219.74</v>
       </c>
       <c r="D27" t="n">
-        <v>206.8</v>
+        <v>274.46</v>
       </c>
       <c r="E27" t="n">
-        <v>16.36</v>
+        <v>12.244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>314.42</v>
+        <v>215.9</v>
       </c>
       <c r="D28" t="n">
-        <v>343.62</v>
+        <v>286.52</v>
       </c>
       <c r="E28" t="n">
-        <v>7.108</v>
+        <v>11.988</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>69.72</v>
+        <v>369.88</v>
       </c>
       <c r="D29" t="n">
-        <v>115.34</v>
+        <v>429.38</v>
       </c>
       <c r="E29" t="n">
-        <v>24.236</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>206.8</v>
+        <v>109.06</v>
       </c>
       <c r="D30" t="n">
-        <v>249.34</v>
+        <v>185.86</v>
       </c>
       <c r="E30" t="n">
-        <v>13.236</v>
+        <v>19.804</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,51 +1021,51 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>249.34</v>
+        <v>286.52</v>
       </c>
       <c r="D31" t="n">
-        <v>306.6</v>
+        <v>328.68</v>
       </c>
       <c r="E31" t="n">
-        <v>10.64</v>
+        <v>9.391999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>371.98</v>
+        <v>156.64</v>
       </c>
       <c r="D32" t="n">
-        <v>434.18</v>
+        <v>230.28</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592</v>
+        <v>15.512</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>226.2</v>
+        <v>328.68</v>
       </c>
       <c r="D33" t="n">
-        <v>280.88</v>
+        <v>408.38</v>
       </c>
       <c r="E33" t="n">
-        <v>9.731999999999999</v>
+        <v>6.032</v>
       </c>
     </row>
     <row r="34">
@@ -1074,93 +1074,93 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>306.6</v>
+        <v>269.94</v>
       </c>
       <c r="D34" t="n">
-        <v>356.36</v>
+        <v>359.34</v>
       </c>
       <c r="E34" t="n">
-        <v>8.263999999999999</v>
+        <v>12.296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>197.18</v>
+        <v>359.34</v>
       </c>
       <c r="D35" t="n">
-        <v>250.92</v>
+        <v>423.56</v>
       </c>
       <c r="E35" t="n">
-        <v>17.908</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>356.36</v>
+        <v>274.46</v>
       </c>
       <c r="D36" t="n">
-        <v>440.66</v>
+        <v>339.24</v>
       </c>
       <c r="E36" t="n">
-        <v>5.404</v>
+        <v>8.396000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>115.34</v>
+        <v>185.86</v>
       </c>
       <c r="D37" t="n">
-        <v>177.54</v>
+        <v>265.96</v>
       </c>
       <c r="E37" t="n">
-        <v>21.596</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>250.92</v>
+        <v>265.96</v>
       </c>
       <c r="D38" t="n">
-        <v>328.12</v>
+        <v>355.26</v>
       </c>
       <c r="E38" t="n">
-        <v>13.288</v>
+        <v>13.524</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>328.12</v>
+        <v>339.24</v>
       </c>
       <c r="D39" t="n">
-        <v>388.02</v>
+        <v>399.34</v>
       </c>
       <c r="E39" t="n">
-        <v>9.928000000000001</v>
+        <v>4.496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>343.62</v>
+        <v>230.28</v>
       </c>
       <c r="D40" t="n">
-        <v>400.22</v>
+        <v>269.38</v>
       </c>
       <c r="E40" t="n">
-        <v>3.568</v>
+        <v>13.232</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>177.54</v>
+        <v>269.38</v>
       </c>
       <c r="D41" t="n">
-        <v>250.54</v>
+        <v>322.78</v>
       </c>
       <c r="E41" t="n">
-        <v>18.876</v>
+        <v>10.512</v>
       </c>
     </row>
   </sheetData>
